--- a/uploaded.xlsx
+++ b/uploaded.xlsx
@@ -1,45 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29429"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_RaterAutomation\GPC\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B01B696-C830-402D-A37F-586E91095A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A076BA6A-D407-6B4E-979D-608FBB4D0919}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Rater" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rater!#REF!</definedName>
-  </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="142">
   <si>
     <t>isExecute</t>
   </si>
@@ -276,37 +251,205 @@
   </si>
   <si>
     <t>MVRViolations-1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>CODE837</t>
+  </si>
+  <si>
+    <t>CODE517</t>
+  </si>
+  <si>
+    <t>CODE974</t>
+  </si>
+  <si>
+    <t>CODE143</t>
+  </si>
+  <si>
+    <t>CODE112</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>CODE319</t>
+  </si>
+  <si>
+    <t>CODE991</t>
+  </si>
+  <si>
+    <t>CODE645</t>
+  </si>
+  <si>
+    <t>CODE126</t>
+  </si>
+  <si>
+    <t>CODE332</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CODE396</t>
+  </si>
+  <si>
+    <t>CODE487</t>
+  </si>
+  <si>
+    <t>CODE192</t>
+  </si>
+  <si>
+    <t>CODE594</t>
+  </si>
+  <si>
+    <t>CODE918</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CODE834</t>
+  </si>
+  <si>
+    <t>CODE882</t>
+  </si>
+  <si>
+    <t>CODE123</t>
+  </si>
+  <si>
+    <t>CODE465</t>
+  </si>
+  <si>
+    <t>CODE505</t>
+  </si>
+  <si>
+    <t>CODE816</t>
+  </si>
+  <si>
+    <t>CODE941</t>
+  </si>
+  <si>
+    <t>CODE510</t>
+  </si>
+  <si>
+    <t>CODE423</t>
+  </si>
+  <si>
+    <t>CODE543</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Maricopa</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>430495</t>
+  </si>
+  <si>
+    <t>958394</t>
+  </si>
+  <si>
+    <t>241410</t>
+  </si>
+  <si>
+    <t>778172</t>
+  </si>
+  <si>
+    <t>664899</t>
+  </si>
+  <si>
+    <t>235113</t>
+  </si>
+  <si>
+    <t>172256</t>
+  </si>
+  <si>
+    <t>341948</t>
+  </si>
+  <si>
+    <t>479238</t>
+  </si>
+  <si>
+    <t>672166</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Bob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,28 +459,22 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -345,33 +482,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{CA03B166-24FF-449F-AE86-0E27AD920517}"/>
-    <cellStyle name="Currency 2" xfId="1" xr:uid="{F5FD002C-E279-404B-988C-3F9F4A1B6D24}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4 4" xfId="3" xr:uid="{E0A0CF04-49D8-4A91-88C8-CC6B22263DA5}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -386,44 +527,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -450,32 +591,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -502,24 +625,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,237 +636,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB404E71-F3F1-404A-A27E-AD079269C616}">
-  <dimension ref="A1:CA1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="17.649999999999999" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:79" ht="17.649999999999999" customHeight="1">
+    <row r="1" spans="1:79">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1000,9 +1046,1202 @@
         <v>78</v>
       </c>
     </row>
+    <row r="2" spans="1:79">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>71.03</v>
+      </c>
+      <c r="D2">
+        <v>54.85</v>
+      </c>
+      <c r="E2">
+        <v>73.14</v>
+      </c>
+      <c r="F2">
+        <v>50.97</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2">
+        <v>86689.69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2">
+        <v>27819.1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="2">
+        <v>45515</v>
+      </c>
+      <c r="W2">
+        <v>40436.82</v>
+      </c>
+      <c r="X2">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2">
+        <v>5</v>
+      </c>
+      <c r="AD2">
+        <v>9231</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF2">
+        <v>74010.97</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2">
+        <v>48669.33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2">
+        <v>68593.60000000001</v>
+      </c>
+      <c r="AK2">
+        <v>82080.85000000001</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2">
+        <v>94053.50999999999</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2">
+        <v>3148</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2">
+        <v>14.46</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV2">
+        <v>5041</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX2">
+        <v>22404.19</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ2">
+        <v>2328</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB2">
+        <v>8</v>
+      </c>
+      <c r="BC2">
+        <v>8</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>103</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT2">
+        <v>9072</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY2">
+        <v>5</v>
+      </c>
+      <c r="BZ2">
+        <v>3290</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:79">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>7.69</v>
+      </c>
+      <c r="D3">
+        <v>15.83</v>
+      </c>
+      <c r="E3">
+        <v>6.09</v>
+      </c>
+      <c r="F3">
+        <v>52.91</v>
+      </c>
+      <c r="G3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3">
+        <v>84806.71000000001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3">
+        <v>7848.46</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="2">
+        <v>45436</v>
+      </c>
+      <c r="W3">
+        <v>38764.79</v>
+      </c>
+      <c r="X3">
+        <v>11</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3">
+        <v>15</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3">
+        <v>6</v>
+      </c>
+      <c r="AD3">
+        <v>9927</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF3">
+        <v>71979.94</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH3">
+        <v>60209.56</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ3">
+        <v>31768.03</v>
+      </c>
+      <c r="AK3">
+        <v>86066.73</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3">
+        <v>89551.32000000001</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR3">
+        <v>7850</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT3">
+        <v>75.75</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV3">
+        <v>3455</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX3">
+        <v>4430.24</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3">
+        <v>8779</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB3">
+        <v>11</v>
+      </c>
+      <c r="BC3">
+        <v>10</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT3">
+        <v>3268</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY3">
+        <v>4</v>
+      </c>
+      <c r="BZ3">
+        <v>9933</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:79">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="D4">
+        <v>81.92</v>
+      </c>
+      <c r="E4">
+        <v>95.34</v>
+      </c>
+      <c r="F4">
+        <v>70.91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4">
+        <v>7661.3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4">
+        <v>84337.78</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" t="s">
+        <v>87</v>
+      </c>
+      <c r="T4" t="s">
+        <v>79</v>
+      </c>
+      <c r="U4" t="s">
+        <v>90</v>
+      </c>
+      <c r="V4" s="2">
+        <v>45314</v>
+      </c>
+      <c r="W4">
+        <v>24879.51</v>
+      </c>
+      <c r="X4">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4">
+        <v>11</v>
+      </c>
+      <c r="AA4">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC4">
+        <v>15</v>
+      </c>
+      <c r="AD4">
+        <v>8348</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4">
+        <v>57334.16</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH4">
+        <v>73758.69</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ4">
+        <v>37497.3</v>
+      </c>
+      <c r="AK4">
+        <v>17411.2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO4">
+        <v>68300.42999999999</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR4">
+        <v>4475</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT4">
+        <v>78.34</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV4">
+        <v>9074</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX4">
+        <v>20067.83</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ4">
+        <v>4678</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB4">
+        <v>19</v>
+      </c>
+      <c r="BC4">
+        <v>7</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BT4">
+        <v>8306</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY4">
+        <v>2</v>
+      </c>
+      <c r="BZ4">
+        <v>6168</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:79">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D5">
+        <v>6.79</v>
+      </c>
+      <c r="E5">
+        <v>9.23</v>
+      </c>
+      <c r="F5">
+        <v>88.78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5">
+        <v>62514.53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P5">
+        <v>48135.48</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45587</v>
+      </c>
+      <c r="W5">
+        <v>67372.2</v>
+      </c>
+      <c r="X5">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z5">
+        <v>4</v>
+      </c>
+      <c r="AA5">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5">
+        <v>6</v>
+      </c>
+      <c r="AD5">
+        <v>8015</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF5">
+        <v>30380.28</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH5">
+        <v>79855.94</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ5">
+        <v>47564.44</v>
+      </c>
+      <c r="AK5">
+        <v>48363.56</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO5">
+        <v>85987.13</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR5">
+        <v>3767</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT5">
+        <v>64.41</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV5">
+        <v>6022</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX5">
+        <v>87525.31</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ5">
+        <v>4981</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB5">
+        <v>12</v>
+      </c>
+      <c r="BC5">
+        <v>8</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>113</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>97</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BT5">
+        <v>1622</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BY5">
+        <v>5</v>
+      </c>
+      <c r="BZ5">
+        <v>4877</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:79">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6">
+        <v>64.75</v>
+      </c>
+      <c r="D6">
+        <v>18.43</v>
+      </c>
+      <c r="E6">
+        <v>35.74</v>
+      </c>
+      <c r="F6">
+        <v>87.06999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6">
+        <v>22687.37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6">
+        <v>38431.47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U6" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="2">
+        <v>45354</v>
+      </c>
+      <c r="W6">
+        <v>86449.14999999999</v>
+      </c>
+      <c r="X6">
+        <v>9</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6">
+        <v>19</v>
+      </c>
+      <c r="AD6">
+        <v>3436</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF6">
+        <v>81101.64</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH6">
+        <v>10125.1</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ6">
+        <v>2394.54</v>
+      </c>
+      <c r="AK6">
+        <v>33753.59</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO6">
+        <v>35651.77</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR6">
+        <v>7618</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT6">
+        <v>20.81</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV6">
+        <v>6780</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX6">
+        <v>2533.39</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ6">
+        <v>6985</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BB6">
+        <v>12</v>
+      </c>
+      <c r="BC6">
+        <v>12</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>109</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>103</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT6">
+        <v>6399</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY6">
+        <v>2</v>
+      </c>
+      <c r="BZ6">
+        <v>3826</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>